--- a/data/pca/factorExposure/factorExposure_2018-03-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0111257656836509</v>
+        <v>0.01372610153488691</v>
       </c>
       <c r="C2">
-        <v>0.03044202964836393</v>
+        <v>-0.0261078392858947</v>
       </c>
       <c r="D2">
-        <v>-0.02443698338141662</v>
+        <v>0.02851418358145209</v>
       </c>
       <c r="E2">
-        <v>0.006875508170920325</v>
+        <v>0.01948151281501736</v>
       </c>
       <c r="F2">
-        <v>-0.0931098701420951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01149249182304649</v>
+      </c>
+      <c r="G2">
+        <v>0.02799448632423375</v>
+      </c>
+      <c r="H2">
+        <v>-0.04495365127067683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08268484520144233</v>
+        <v>0.05981807096279599</v>
       </c>
       <c r="C3">
-        <v>0.05256428230789534</v>
+        <v>-0.07827990097433371</v>
       </c>
       <c r="D3">
-        <v>-0.006996405965745403</v>
+        <v>0.0173192717240723</v>
       </c>
       <c r="E3">
-        <v>0.03125712940069593</v>
+        <v>0.006041208475192788</v>
       </c>
       <c r="F3">
-        <v>-0.3391869729420803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.07338497829957993</v>
+      </c>
+      <c r="G3">
+        <v>0.1350874622526175</v>
+      </c>
+      <c r="H3">
+        <v>-0.1067242894045761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04366180810266893</v>
+        <v>0.03623159650105803</v>
       </c>
       <c r="C4">
-        <v>0.02003060240764888</v>
+        <v>-0.06102775921072403</v>
       </c>
       <c r="D4">
-        <v>-0.03386504977034068</v>
+        <v>0.02715734581919662</v>
       </c>
       <c r="E4">
-        <v>-0.037111467468075</v>
+        <v>-0.01607670280952373</v>
       </c>
       <c r="F4">
-        <v>-0.06000062577993334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02412940948120749</v>
+      </c>
+      <c r="G4">
+        <v>0.04959062804919235</v>
+      </c>
+      <c r="H4">
+        <v>-0.05735432424162228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03258564654292287</v>
+        <v>0.02125181368117048</v>
       </c>
       <c r="C6">
-        <v>0.01793397776926496</v>
+        <v>-0.05962482796538633</v>
       </c>
       <c r="D6">
-        <v>-0.04022296445594443</v>
+        <v>0.02205939961435902</v>
       </c>
       <c r="E6">
-        <v>-0.02421981632054337</v>
+        <v>-0.00481373185858087</v>
       </c>
       <c r="F6">
-        <v>-0.01306774369531372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02378127181307586</v>
+      </c>
+      <c r="G6">
+        <v>0.02154392416602042</v>
+      </c>
+      <c r="H6">
+        <v>-0.05948791799010325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0393020092426281</v>
+        <v>0.008801533139175557</v>
       </c>
       <c r="C7">
-        <v>-0.02627278777876097</v>
+        <v>-0.03256693402766862</v>
       </c>
       <c r="D7">
-        <v>-0.02920492409965326</v>
+        <v>0.0157702270195496</v>
       </c>
       <c r="E7">
-        <v>-0.01542653360064569</v>
+        <v>-0.04380663084797312</v>
       </c>
       <c r="F7">
-        <v>-0.03487579932253231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.007354870468071071</v>
+      </c>
+      <c r="G7">
+        <v>0.01712744061969944</v>
+      </c>
+      <c r="H7">
+        <v>-0.03574377011319468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01522286607803932</v>
+        <v>-0.001430600784200446</v>
       </c>
       <c r="C8">
-        <v>0.001602554887497204</v>
+        <v>-0.01174870638479487</v>
       </c>
       <c r="D8">
-        <v>-0.04256389192108553</v>
+        <v>0.003580001553395419</v>
       </c>
       <c r="E8">
-        <v>-0.02711196420064521</v>
+        <v>-0.01001753218979919</v>
       </c>
       <c r="F8">
-        <v>-0.06270223805909232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.00416739310474199</v>
+      </c>
+      <c r="G8">
+        <v>0.04154457762514537</v>
+      </c>
+      <c r="H8">
+        <v>-0.03192101163811782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03165134527237728</v>
+        <v>0.02168142934264281</v>
       </c>
       <c r="C9">
-        <v>0.01285771261870761</v>
+        <v>-0.04696543195288735</v>
       </c>
       <c r="D9">
-        <v>-0.03301649545115801</v>
+        <v>0.01939932540533519</v>
       </c>
       <c r="E9">
-        <v>-0.01469648836723653</v>
+        <v>-0.006380435520578745</v>
       </c>
       <c r="F9">
-        <v>-0.07905814816942565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.004157433835407244</v>
+      </c>
+      <c r="G9">
+        <v>0.04507595937748911</v>
+      </c>
+      <c r="H9">
+        <v>-0.05278248142222002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04176379962950492</v>
+        <v>0.1354587342921862</v>
       </c>
       <c r="C10">
-        <v>0.007432590082049282</v>
+        <v>0.1338165173398577</v>
       </c>
       <c r="D10">
-        <v>0.1459850094444999</v>
+        <v>-0.04806764586818971</v>
       </c>
       <c r="E10">
-        <v>0.04072959565612742</v>
+        <v>0.0002221026737238068</v>
       </c>
       <c r="F10">
-        <v>-0.05952908303550755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04636093730074543</v>
+      </c>
+      <c r="G10">
+        <v>0.01951483851524629</v>
+      </c>
+      <c r="H10">
+        <v>0.01216220335203926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02808587271308948</v>
+        <v>0.01525496658095167</v>
       </c>
       <c r="C11">
-        <v>0.0250853767751967</v>
+        <v>-0.05040792297570858</v>
       </c>
       <c r="D11">
-        <v>-0.03661203317076021</v>
+        <v>0.00706324530197639</v>
       </c>
       <c r="E11">
-        <v>-0.02110375663389264</v>
+        <v>0.001630869342873344</v>
       </c>
       <c r="F11">
-        <v>-0.02593927786619648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.003817851550099372</v>
+      </c>
+      <c r="G11">
+        <v>0.02114708792866233</v>
+      </c>
+      <c r="H11">
+        <v>-0.05039439502831677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03921763737841302</v>
+        <v>0.01909959816841007</v>
       </c>
       <c r="C12">
-        <v>0.02537358350753877</v>
+        <v>-0.04805602627149917</v>
       </c>
       <c r="D12">
-        <v>-0.03050752966666448</v>
+        <v>0.01038817770170914</v>
       </c>
       <c r="E12">
-        <v>-0.03023470417440086</v>
+        <v>-0.0113706412734013</v>
       </c>
       <c r="F12">
-        <v>-0.001668918619731045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01041577114182002</v>
+      </c>
+      <c r="G12">
+        <v>0.008451542161334624</v>
+      </c>
+      <c r="H12">
+        <v>-0.01959696836891321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.008134758730377362</v>
+        <v>0.01687455948049721</v>
       </c>
       <c r="C13">
-        <v>0.02152544542834292</v>
+        <v>-0.02111613843501458</v>
       </c>
       <c r="D13">
-        <v>-0.009398636391149419</v>
+        <v>0.02357771514804168</v>
       </c>
       <c r="E13">
-        <v>-0.008987917278996942</v>
+        <v>0.01347494085165308</v>
       </c>
       <c r="F13">
-        <v>-0.07430315055498482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.004683540701485113</v>
+      </c>
+      <c r="G13">
+        <v>0.0548170684855056</v>
+      </c>
+      <c r="H13">
+        <v>-0.06892357818626547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02305682455956245</v>
+        <v>0.008279007010500978</v>
       </c>
       <c r="C14">
-        <v>-0.0006902486414846414</v>
+        <v>-0.02013415073472942</v>
       </c>
       <c r="D14">
-        <v>-0.01798023502802623</v>
+        <v>0.009233342547889562</v>
       </c>
       <c r="E14">
-        <v>-0.0183253917481083</v>
+        <v>-0.01423107148152437</v>
       </c>
       <c r="F14">
-        <v>-0.04761169306230403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.007077067570345326</v>
+      </c>
+      <c r="G14">
+        <v>0.0377402940922011</v>
+      </c>
+      <c r="H14">
+        <v>-0.009387279253491322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02936937469468431</v>
+        <v>0.01708675750285361</v>
       </c>
       <c r="C16">
-        <v>0.0249597341301336</v>
+        <v>-0.043443860740743</v>
       </c>
       <c r="D16">
-        <v>-0.04051360962713309</v>
+        <v>0.005293457958178024</v>
       </c>
       <c r="E16">
-        <v>-0.02260560145518862</v>
+        <v>-0.002685068147389486</v>
       </c>
       <c r="F16">
-        <v>-0.02801478215673443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.005710869775710805</v>
+      </c>
+      <c r="G16">
+        <v>0.02090074631835877</v>
+      </c>
+      <c r="H16">
+        <v>-0.03641058367292681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03311303491073168</v>
+        <v>0.01917561255445333</v>
       </c>
       <c r="C19">
-        <v>0.02026703127163566</v>
+        <v>-0.04076184663854342</v>
       </c>
       <c r="D19">
-        <v>-0.04474078368505752</v>
+        <v>0.01691330154404359</v>
       </c>
       <c r="E19">
-        <v>-0.03615968936138075</v>
+        <v>-0.01112898836138775</v>
       </c>
       <c r="F19">
-        <v>-0.07654795683789012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0005321586130420224</v>
+      </c>
+      <c r="G19">
+        <v>0.05624949619562052</v>
+      </c>
+      <c r="H19">
+        <v>-0.05381235682780933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003779403635750313</v>
+        <v>0.004709729807432652</v>
       </c>
       <c r="C20">
-        <v>-0.008602050803745563</v>
+        <v>-0.01945419477384943</v>
       </c>
       <c r="D20">
-        <v>-0.004703004763120472</v>
+        <v>0.01328132999851401</v>
       </c>
       <c r="E20">
-        <v>-0.01265445781731821</v>
+        <v>-0.004897603990933585</v>
       </c>
       <c r="F20">
-        <v>-0.05476339007688872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01027722472285323</v>
+      </c>
+      <c r="G20">
+        <v>0.04734112868862819</v>
+      </c>
+      <c r="H20">
+        <v>-0.02695779482645843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01939083238532252</v>
+        <v>0.009341068090047673</v>
       </c>
       <c r="C21">
-        <v>-0.01489679165441161</v>
+        <v>-0.01829636557227838</v>
       </c>
       <c r="D21">
-        <v>-0.03327398737095617</v>
+        <v>0.01542411336443889</v>
       </c>
       <c r="E21">
-        <v>-0.005785055506004722</v>
+        <v>-0.01733886627612819</v>
       </c>
       <c r="F21">
-        <v>-0.02555525982122054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0161764016920543</v>
+      </c>
+      <c r="G21">
+        <v>0.03791275585101825</v>
+      </c>
+      <c r="H21">
+        <v>-0.0500400084793402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02668514800636046</v>
+        <v>0.01193665612240844</v>
       </c>
       <c r="C24">
-        <v>0.02252812468672461</v>
+        <v>-0.04278029416733007</v>
       </c>
       <c r="D24">
-        <v>-0.02104072715536093</v>
+        <v>0.01060829908739187</v>
       </c>
       <c r="E24">
-        <v>-0.0220082450496593</v>
+        <v>-0.0010855966152524</v>
       </c>
       <c r="F24">
-        <v>-0.03121468752300828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.005237400286674331</v>
+      </c>
+      <c r="G24">
+        <v>0.01520215225953479</v>
+      </c>
+      <c r="H24">
+        <v>-0.04349286109286239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02958135425735388</v>
+        <v>0.02523171303287498</v>
       </c>
       <c r="C25">
-        <v>0.02057181814201973</v>
+        <v>-0.04727978929096033</v>
       </c>
       <c r="D25">
-        <v>-0.03153549476532012</v>
+        <v>0.01445853996837507</v>
       </c>
       <c r="E25">
-        <v>-0.01728018801211771</v>
+        <v>-0.006295949012965577</v>
       </c>
       <c r="F25">
-        <v>-0.03234964893183668</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01232345750137294</v>
+      </c>
+      <c r="G25">
+        <v>0.02056078395912284</v>
+      </c>
+      <c r="H25">
+        <v>-0.04384141350054439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01333542349035805</v>
+        <v>0.008312134308951393</v>
       </c>
       <c r="C26">
-        <v>0.009053477843532774</v>
+        <v>-0.004733071780226089</v>
       </c>
       <c r="D26">
-        <v>-0.01976403924465474</v>
+        <v>0.02285523839063285</v>
       </c>
       <c r="E26">
-        <v>0.002597354161628267</v>
+        <v>-0.001623095127618824</v>
       </c>
       <c r="F26">
-        <v>-0.05430112863244755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.009713560294003323</v>
+      </c>
+      <c r="G26">
+        <v>0.02449673378114391</v>
+      </c>
+      <c r="H26">
+        <v>-0.01766417890499311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0312347596086841</v>
+        <v>0.01136753454900456</v>
       </c>
       <c r="C27">
-        <v>0.01695753017735505</v>
+        <v>-0.0113118275045658</v>
       </c>
       <c r="D27">
-        <v>0.001226081116698524</v>
+        <v>-0.0005631522585163453</v>
       </c>
       <c r="E27">
-        <v>-0.03203626532901462</v>
+        <v>-0.007099212866333433</v>
       </c>
       <c r="F27">
-        <v>-0.01069166241177967</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.003086922100995406</v>
+      </c>
+      <c r="G27">
+        <v>0.009051115610630808</v>
+      </c>
+      <c r="H27">
+        <v>0.006276995931958618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07404834047158947</v>
+        <v>0.1874202039801663</v>
       </c>
       <c r="C28">
-        <v>0.015593750808788</v>
+        <v>0.1791690719234718</v>
       </c>
       <c r="D28">
-        <v>0.2114661234748942</v>
+        <v>-0.05089691122992936</v>
       </c>
       <c r="E28">
-        <v>0.07617764710377388</v>
+        <v>-0.0121824299650173</v>
       </c>
       <c r="F28">
-        <v>-0.05640594888501989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04379562643048383</v>
+      </c>
+      <c r="G28">
+        <v>0.008669588620138944</v>
+      </c>
+      <c r="H28">
+        <v>0.01492705248623519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02439170946981884</v>
+        <v>0.0140472690175634</v>
       </c>
       <c r="C29">
-        <v>0.0005382491159251298</v>
+        <v>-0.01885336079197518</v>
       </c>
       <c r="D29">
-        <v>-0.02080938721703689</v>
+        <v>0.007727395221396165</v>
       </c>
       <c r="E29">
-        <v>-0.02045033642305848</v>
+        <v>-0.01352554104819598</v>
       </c>
       <c r="F29">
-        <v>-0.04429266956259228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.007169632099725626</v>
+      </c>
+      <c r="G29">
+        <v>0.03665327491120451</v>
+      </c>
+      <c r="H29">
+        <v>-0.005062427350574936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03810571348676924</v>
+        <v>0.02821549070839866</v>
       </c>
       <c r="C30">
-        <v>0.0743065281964447</v>
+        <v>-0.08619344551058422</v>
       </c>
       <c r="D30">
-        <v>-0.05675051047963242</v>
+        <v>0.03624459943568615</v>
       </c>
       <c r="E30">
-        <v>-0.02964854999403424</v>
+        <v>0.03208303132712759</v>
       </c>
       <c r="F30">
-        <v>-0.08732911452081395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.01141766968128727</v>
+      </c>
+      <c r="G30">
+        <v>0.06241822327212269</v>
+      </c>
+      <c r="H30">
+        <v>-0.07431440973349686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04680222035588284</v>
+        <v>0.04048009685284436</v>
       </c>
       <c r="C31">
-        <v>0.03709454321916207</v>
+        <v>-0.03097913494910726</v>
       </c>
       <c r="D31">
-        <v>-0.01680184778134603</v>
+        <v>0.003566503770755702</v>
       </c>
       <c r="E31">
-        <v>-0.0251792308797656</v>
+        <v>-0.0001036510474098585</v>
       </c>
       <c r="F31">
-        <v>-0.02988983284803946</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005890776514991022</v>
+      </c>
+      <c r="G31">
+        <v>0.01784379611177283</v>
+      </c>
+      <c r="H31">
+        <v>-0.003741939163470689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0236370614147392</v>
+        <v>0.003644000279749965</v>
       </c>
       <c r="C32">
-        <v>-0.01296143128570196</v>
+        <v>-0.01404644547252837</v>
       </c>
       <c r="D32">
-        <v>-0.05427250798688495</v>
+        <v>-0.006741160560474383</v>
       </c>
       <c r="E32">
-        <v>-0.04044501066879674</v>
+        <v>-0.03100036913145722</v>
       </c>
       <c r="F32">
-        <v>-0.04365797479103623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01457058611084032</v>
+      </c>
+      <c r="G32">
+        <v>0.0529865746674043</v>
+      </c>
+      <c r="H32">
+        <v>-0.04873120837865307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02890165781911454</v>
+        <v>0.01807657022588424</v>
       </c>
       <c r="C33">
-        <v>0.04616337868961479</v>
+        <v>-0.04696159469592046</v>
       </c>
       <c r="D33">
-        <v>-0.04961345289575135</v>
+        <v>0.01835163223198994</v>
       </c>
       <c r="E33">
-        <v>-0.002502589050471438</v>
+        <v>0.01943909562083764</v>
       </c>
       <c r="F33">
-        <v>-0.06126114993106509</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02094117971149719</v>
+      </c>
+      <c r="G33">
+        <v>0.03481236992673523</v>
+      </c>
+      <c r="H33">
+        <v>-0.04954230437003661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03506317666864774</v>
+        <v>0.02443590835369399</v>
       </c>
       <c r="C34">
-        <v>0.01887483402075322</v>
+        <v>-0.05192122755430061</v>
       </c>
       <c r="D34">
-        <v>-0.04248851078449395</v>
+        <v>-0.001301567031786496</v>
       </c>
       <c r="E34">
-        <v>-0.03290601015874552</v>
+        <v>-0.01391496612477446</v>
       </c>
       <c r="F34">
-        <v>-0.02630435988367811</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01491212015781228</v>
+      </c>
+      <c r="G34">
+        <v>0.01359377877002297</v>
+      </c>
+      <c r="H34">
+        <v>-0.03629832721569985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01763423088761771</v>
+        <v>0.01411971488157396</v>
       </c>
       <c r="C36">
-        <v>0.0006089177131277361</v>
+        <v>-0.005676501571919445</v>
       </c>
       <c r="D36">
-        <v>-0.01126468965227054</v>
+        <v>0.009622369902205778</v>
       </c>
       <c r="E36">
-        <v>-0.01307776816866733</v>
+        <v>-0.008268133483899818</v>
       </c>
       <c r="F36">
-        <v>-0.02860851334978094</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.006074636127286428</v>
+      </c>
+      <c r="G36">
+        <v>0.01699336456058689</v>
+      </c>
+      <c r="H36">
+        <v>-0.01495951355722681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006478901407200923</v>
+        <v>0.02267535427423668</v>
       </c>
       <c r="C38">
-        <v>0.004460372320967387</v>
+        <v>-0.01903704153198734</v>
       </c>
       <c r="D38">
-        <v>-0.001709809089398012</v>
+        <v>-0.007974892015014763</v>
       </c>
       <c r="E38">
-        <v>0.02031581652840406</v>
+        <v>-0.000876576712355456</v>
       </c>
       <c r="F38">
-        <v>-0.04455777758885768</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.003072845698495785</v>
+      </c>
+      <c r="G38">
+        <v>0.02270136948087873</v>
+      </c>
+      <c r="H38">
+        <v>-0.0320582121374877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02697440768557011</v>
+        <v>0.005327450548358021</v>
       </c>
       <c r="C39">
-        <v>0.02422978022440965</v>
+        <v>-0.08529363292601264</v>
       </c>
       <c r="D39">
-        <v>-0.05844427042689265</v>
+        <v>0.02299983937172432</v>
       </c>
       <c r="E39">
-        <v>-0.02325079178575521</v>
+        <v>0.006341658672366771</v>
       </c>
       <c r="F39">
-        <v>-0.04706169684117591</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.004541615616459782</v>
+      </c>
+      <c r="G39">
+        <v>0.03162124759140413</v>
+      </c>
+      <c r="H39">
+        <v>-0.07973378714558449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01263028216447202</v>
+        <v>0.02255296028346334</v>
       </c>
       <c r="C40">
-        <v>0.05078127720597904</v>
+        <v>-0.02991734241940262</v>
       </c>
       <c r="D40">
-        <v>-0.02187886069294706</v>
+        <v>0.01217533326312674</v>
       </c>
       <c r="E40">
-        <v>-0.03067377829578563</v>
+        <v>0.02360504779150032</v>
       </c>
       <c r="F40">
-        <v>-0.0389629307894658</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02175677186238649</v>
+      </c>
+      <c r="G40">
+        <v>0.02293303655133363</v>
+      </c>
+      <c r="H40">
+        <v>-0.05709755428124021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.006758821948164208</v>
+        <v>0.01215212929294513</v>
       </c>
       <c r="C41">
-        <v>-0.001187683578067898</v>
+        <v>0.008101242142002352</v>
       </c>
       <c r="D41">
-        <v>-0.006246331083144475</v>
+        <v>0.0003677077607378236</v>
       </c>
       <c r="E41">
-        <v>0.01126177354394539</v>
+        <v>-0.004706170148823728</v>
       </c>
       <c r="F41">
-        <v>-0.004376937378762607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00711926573555902</v>
+      </c>
+      <c r="G41">
+        <v>-0.00317281932093107</v>
+      </c>
+      <c r="H41">
+        <v>0.004968098062074607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.208234534650309</v>
+        <v>0.09374447631284273</v>
       </c>
       <c r="C42">
-        <v>0.2395580706685417</v>
+        <v>-0.187761424592891</v>
       </c>
       <c r="D42">
-        <v>-0.2305445644008711</v>
+        <v>0.1533754418654498</v>
       </c>
       <c r="E42">
-        <v>0.8566698055305993</v>
+        <v>0.2050099102692758</v>
       </c>
       <c r="F42">
-        <v>0.2596418240231655</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7064541624716633</v>
+      </c>
+      <c r="G42">
+        <v>-0.6080275702886824</v>
+      </c>
+      <c r="H42">
+        <v>-0.05514764763557752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.005832985613129111</v>
+        <v>0.01278872617773774</v>
       </c>
       <c r="C43">
-        <v>0.004577768360655521</v>
+        <v>0.008081637525254785</v>
       </c>
       <c r="D43">
-        <v>-0.01099152126686286</v>
+        <v>0.001213945397638858</v>
       </c>
       <c r="E43">
-        <v>0.001251660549638813</v>
+        <v>-0.0002063844605841321</v>
       </c>
       <c r="F43">
-        <v>-0.02429259421478577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.007880434332489198</v>
+      </c>
+      <c r="G43">
+        <v>-6.208215886769575e-05</v>
+      </c>
+      <c r="H43">
+        <v>-0.003645565497962071</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02407076342337753</v>
+        <v>0.009722169904349544</v>
       </c>
       <c r="C44">
-        <v>-0.002727488658746653</v>
+        <v>-0.03863236688635764</v>
       </c>
       <c r="D44">
-        <v>-0.02992318939433774</v>
+        <v>0.009723159374745926</v>
       </c>
       <c r="E44">
-        <v>0.002945704415596921</v>
+        <v>-0.01474613980340689</v>
       </c>
       <c r="F44">
-        <v>-0.09170649313774634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.0222317723350233</v>
+      </c>
+      <c r="G44">
+        <v>0.03189564392610322</v>
+      </c>
+      <c r="H44">
+        <v>-0.06001651578004586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01774107052578768</v>
+        <v>0.004858395864520759</v>
       </c>
       <c r="C46">
-        <v>0.01075206238186931</v>
+        <v>-0.0128331193656215</v>
       </c>
       <c r="D46">
-        <v>-0.05516295280933483</v>
+        <v>0.01219476261223314</v>
       </c>
       <c r="E46">
-        <v>-0.02319633731556888</v>
+        <v>-0.001362926123888755</v>
       </c>
       <c r="F46">
-        <v>-0.05899508456821624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01218299440573635</v>
+      </c>
+      <c r="G46">
+        <v>0.03560631157553922</v>
+      </c>
+      <c r="H46">
+        <v>-0.006617429006691421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07467378148177428</v>
+        <v>0.05610355882613995</v>
       </c>
       <c r="C47">
-        <v>0.05529469386704653</v>
+        <v>-0.06730414859786861</v>
       </c>
       <c r="D47">
-        <v>-0.008495344877934078</v>
+        <v>-6.910260765244379e-05</v>
       </c>
       <c r="E47">
-        <v>-0.0371902842575715</v>
+        <v>-0.006645578948104647</v>
       </c>
       <c r="F47">
-        <v>-0.003637769972658016</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.00737110394092039</v>
+      </c>
+      <c r="G47">
+        <v>0.003316503699991112</v>
+      </c>
+      <c r="H47">
+        <v>0.03170209430336087</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01618535515293728</v>
+        <v>0.01392179266685316</v>
       </c>
       <c r="C48">
-        <v>0.01087317258900616</v>
+        <v>-0.01552605730436481</v>
       </c>
       <c r="D48">
-        <v>-0.01884575882143405</v>
+        <v>0.001817785040583019</v>
       </c>
       <c r="E48">
-        <v>-0.01279059001878506</v>
+        <v>-0.001652026611603907</v>
       </c>
       <c r="F48">
-        <v>-0.03365269508148934</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.003322030515838082</v>
+      </c>
+      <c r="G48">
+        <v>0.01890244198291892</v>
+      </c>
+      <c r="H48">
+        <v>-0.01836393460804661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07845725260245322</v>
+        <v>0.05986446920711557</v>
       </c>
       <c r="C50">
-        <v>0.03738828445547892</v>
+        <v>-0.06297845617000386</v>
       </c>
       <c r="D50">
-        <v>-0.03231965382997071</v>
+        <v>0.0006966836870433784</v>
       </c>
       <c r="E50">
-        <v>-0.02467441155286988</v>
+        <v>-0.01827541946063277</v>
       </c>
       <c r="F50">
-        <v>-0.01661177792932096</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.001083971472921028</v>
+      </c>
+      <c r="G50">
+        <v>0.009046437576598424</v>
+      </c>
+      <c r="H50">
+        <v>0.01771424570980564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02124582953605374</v>
+        <v>0.01205222216777098</v>
       </c>
       <c r="C51">
-        <v>0.007151796012195298</v>
+        <v>-0.01343596327059051</v>
       </c>
       <c r="D51">
-        <v>0.002708365061868484</v>
+        <v>0.007166725957923619</v>
       </c>
       <c r="E51">
-        <v>-0.01365706475849001</v>
+        <v>-0.00842751183636741</v>
       </c>
       <c r="F51">
-        <v>-0.08285535308696199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01019598843737515</v>
+      </c>
+      <c r="G51">
+        <v>0.03498965951783155</v>
+      </c>
+      <c r="H51">
+        <v>-0.04155110220501007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.0817097884204976</v>
+        <v>0.07350706036100796</v>
       </c>
       <c r="C53">
-        <v>0.05856616117732267</v>
+        <v>-0.1037407268362096</v>
       </c>
       <c r="D53">
-        <v>-0.03753755375736944</v>
+        <v>0.004748473159968406</v>
       </c>
       <c r="E53">
-        <v>-0.03887482862527784</v>
+        <v>-0.009854645603957234</v>
       </c>
       <c r="F53">
-        <v>0.03435517422536338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0283069363963725</v>
+      </c>
+      <c r="G53">
+        <v>-0.01661840826110366</v>
+      </c>
+      <c r="H53">
+        <v>0.0282050338449019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02488708555627214</v>
+        <v>0.0223154618358145</v>
       </c>
       <c r="C54">
-        <v>0.002625360684261094</v>
+        <v>0.0001577921944452265</v>
       </c>
       <c r="D54">
-        <v>0.003856545396456834</v>
+        <v>-0.006934414847824794</v>
       </c>
       <c r="E54">
-        <v>-0.02291619224248229</v>
+        <v>-0.00776157518626022</v>
       </c>
       <c r="F54">
-        <v>-0.0299425852515446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01412831153720135</v>
+      </c>
+      <c r="G54">
+        <v>0.03783656850552338</v>
+      </c>
+      <c r="H54">
+        <v>0.004093539105439902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0813946293153533</v>
+        <v>0.05416016344058745</v>
       </c>
       <c r="C55">
-        <v>0.05398200724843425</v>
+        <v>-0.09315190474264863</v>
       </c>
       <c r="D55">
-        <v>-0.04336276463717294</v>
+        <v>0.005627256643559876</v>
       </c>
       <c r="E55">
-        <v>-0.02915662363389627</v>
+        <v>-0.01071412658728388</v>
       </c>
       <c r="F55">
-        <v>0.03498081998418021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01017087917301274</v>
+      </c>
+      <c r="G55">
+        <v>-0.003907231662794797</v>
+      </c>
+      <c r="H55">
+        <v>0.03776774269169664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1151460566981549</v>
+        <v>0.09707554221828756</v>
       </c>
       <c r="C56">
-        <v>0.08866309732527175</v>
+        <v>-0.1324835798408938</v>
       </c>
       <c r="D56">
-        <v>-0.02282237747438129</v>
+        <v>-1.174706343335917e-05</v>
       </c>
       <c r="E56">
-        <v>-0.07473409841729768</v>
+        <v>-0.009929396416385131</v>
       </c>
       <c r="F56">
-        <v>0.06685089284263727</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05471126073830276</v>
+      </c>
+      <c r="G56">
+        <v>-0.03474962110500191</v>
+      </c>
+      <c r="H56">
+        <v>0.06812457185205799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03381387405842032</v>
+        <v>0.02416943363843456</v>
       </c>
       <c r="C57">
-        <v>0.0309188094154409</v>
+        <v>-0.02780232163601359</v>
       </c>
       <c r="D57">
-        <v>-0.02112490195995503</v>
+        <v>0.02657122152781482</v>
       </c>
       <c r="E57">
-        <v>0.02917390999409769</v>
+        <v>0.007516343068982015</v>
       </c>
       <c r="F57">
-        <v>-0.05356583876176107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03258348220182847</v>
+      </c>
+      <c r="G57">
+        <v>0.05551899618581083</v>
+      </c>
+      <c r="H57">
+        <v>-0.05473803363702145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1284010302747926</v>
+        <v>0.08416694078904025</v>
       </c>
       <c r="C58">
-        <v>0.2289145789137646</v>
+        <v>-0.188191204853918</v>
       </c>
       <c r="D58">
-        <v>-0.2237059106578138</v>
+        <v>0.03213340905596625</v>
       </c>
       <c r="E58">
-        <v>-0.001238122209701575</v>
+        <v>0.2882042734705832</v>
       </c>
       <c r="F58">
-        <v>-0.5421446741470761</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.4689414711804079</v>
+      </c>
+      <c r="G58">
+        <v>0.692034753793432</v>
+      </c>
+      <c r="H58">
+        <v>0.2955358518586081</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05259780395842196</v>
+        <v>0.2049684406203944</v>
       </c>
       <c r="C59">
-        <v>0.03527308366655304</v>
+        <v>0.1669588622167963</v>
       </c>
       <c r="D59">
-        <v>0.1841833927048805</v>
+        <v>-0.05736518924912645</v>
       </c>
       <c r="E59">
-        <v>0.03302028428436143</v>
+        <v>0.008962706045053895</v>
       </c>
       <c r="F59">
-        <v>-0.08491239871409288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.008750534190179248</v>
+      </c>
+      <c r="G59">
+        <v>0.01819315439836697</v>
+      </c>
+      <c r="H59">
+        <v>-0.01538306621139033</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1203798903996246</v>
+        <v>0.2186404573027498</v>
       </c>
       <c r="C60">
-        <v>0.1269934888171472</v>
+        <v>-0.06135210755163845</v>
       </c>
       <c r="D60">
-        <v>-0.002847165721979791</v>
+        <v>-0.00277407030955584</v>
       </c>
       <c r="E60">
-        <v>0.01744566402722442</v>
+        <v>0.05609236416124064</v>
       </c>
       <c r="F60">
-        <v>-0.1645119271473283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08189289126845165</v>
+      </c>
+      <c r="G60">
+        <v>0.04206035696694534</v>
+      </c>
+      <c r="H60">
+        <v>-0.3904431763039805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01932265719972515</v>
+        <v>0.01217875377869894</v>
       </c>
       <c r="C61">
-        <v>0.01205257767532253</v>
+        <v>-0.05900160640339022</v>
       </c>
       <c r="D61">
-        <v>-0.04420955118918458</v>
+        <v>0.01140443589349832</v>
       </c>
       <c r="E61">
-        <v>-0.007981502390592709</v>
+        <v>-0.003466446434995461</v>
       </c>
       <c r="F61">
-        <v>-0.01723580236661184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.00825076309871463</v>
+      </c>
+      <c r="G61">
+        <v>0.02464213224573519</v>
+      </c>
+      <c r="H61">
+        <v>-0.05716504224564649</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0128700939526362</v>
+        <v>0.007071090885985342</v>
       </c>
       <c r="C63">
-        <v>0.003301022148036388</v>
+        <v>-0.02138769307574988</v>
       </c>
       <c r="D63">
-        <v>-0.02228324305570408</v>
+        <v>0.01006970014141427</v>
       </c>
       <c r="E63">
-        <v>-0.0006473079191795784</v>
+        <v>-0.009495283973079662</v>
       </c>
       <c r="F63">
-        <v>-0.007800982591515214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.000561729256190032</v>
+      </c>
+      <c r="G63">
+        <v>0.0152391930870338</v>
+      </c>
+      <c r="H63">
+        <v>-0.01271557483057343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03583282125439113</v>
+        <v>0.03569198814502347</v>
       </c>
       <c r="C64">
-        <v>0.006926061866710729</v>
+        <v>-0.04263964505983405</v>
       </c>
       <c r="D64">
-        <v>-0.02745343843013138</v>
+        <v>0.007239207987385596</v>
       </c>
       <c r="E64">
-        <v>-0.02294027526006307</v>
+        <v>-0.01542335230397063</v>
       </c>
       <c r="F64">
-        <v>-0.0123373033297791</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.007306975855131237</v>
+      </c>
+      <c r="G64">
+        <v>-0.00882423253571315</v>
+      </c>
+      <c r="H64">
+        <v>-0.04734008494933614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03643641812052568</v>
+        <v>0.04026780933051127</v>
       </c>
       <c r="C65">
-        <v>0.02000973121272372</v>
+        <v>-0.0776198351431901</v>
       </c>
       <c r="D65">
-        <v>-0.0406224568261153</v>
+        <v>0.02416368186573184</v>
       </c>
       <c r="E65">
-        <v>-0.02706652638654808</v>
+        <v>-0.006788088668556901</v>
       </c>
       <c r="F65">
-        <v>-0.006147335579538571</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04252825247538888</v>
+      </c>
+      <c r="G65">
+        <v>0.01450391627086795</v>
+      </c>
+      <c r="H65">
+        <v>-0.07591741514336492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.02974641324756902</v>
+        <v>0.01399120059866266</v>
       </c>
       <c r="C66">
-        <v>0.03428907493093727</v>
+        <v>-0.110991857651354</v>
       </c>
       <c r="D66">
-        <v>-0.06399281210220747</v>
+        <v>0.02408009141772261</v>
       </c>
       <c r="E66">
-        <v>-0.04640273144156921</v>
+        <v>0.007972948790745794</v>
       </c>
       <c r="F66">
-        <v>-0.03218413026306838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.02834382130845831</v>
+      </c>
+      <c r="G66">
+        <v>0.03755768584549637</v>
+      </c>
+      <c r="H66">
+        <v>-0.08512085266048368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01585062551841705</v>
+        <v>0.04533858772745804</v>
       </c>
       <c r="C67">
-        <v>0.01601196625591095</v>
+        <v>-0.02623131769910744</v>
       </c>
       <c r="D67">
-        <v>0.009728577922735699</v>
+        <v>-0.007290172947087767</v>
       </c>
       <c r="E67">
-        <v>0.0113390314912943</v>
+        <v>0.001327659961901799</v>
       </c>
       <c r="F67">
-        <v>-0.026295975312944</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.0112178563051466</v>
+      </c>
+      <c r="G67">
+        <v>0.0174324202050742</v>
+      </c>
+      <c r="H67">
+        <v>-0.03035413809882127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06895885499654825</v>
+        <v>0.2035340070948494</v>
       </c>
       <c r="C68">
-        <v>0.0340539956356593</v>
+        <v>0.2030601275823566</v>
       </c>
       <c r="D68">
-        <v>0.2085822621066458</v>
+        <v>-0.04345010417910699</v>
       </c>
       <c r="E68">
-        <v>0.04428216895535977</v>
+        <v>0.007651990587188429</v>
       </c>
       <c r="F68">
-        <v>-0.07897211366227484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.05605260407272489</v>
+      </c>
+      <c r="G68">
+        <v>0.01557321716831835</v>
+      </c>
+      <c r="H68">
+        <v>0.04504059078211319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05263014129097623</v>
+        <v>0.0555563495915321</v>
       </c>
       <c r="C69">
-        <v>0.04167506353906788</v>
+        <v>-0.05982845590749145</v>
       </c>
       <c r="D69">
-        <v>-0.01518559359422792</v>
+        <v>-0.005542867766307838</v>
       </c>
       <c r="E69">
-        <v>-0.03826658431938316</v>
+        <v>-0.005370152400984037</v>
       </c>
       <c r="F69">
-        <v>-0.008874286412760673</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02638207199290719</v>
+      </c>
+      <c r="G69">
+        <v>0.001664021948339858</v>
+      </c>
+      <c r="H69">
+        <v>-0.007350745238544842</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07389726113441897</v>
+        <v>0.1800843416505655</v>
       </c>
       <c r="C71">
-        <v>0.04249137830245479</v>
+        <v>0.160107964733602</v>
       </c>
       <c r="D71">
-        <v>0.2117503562442237</v>
+        <v>-0.0413459350808037</v>
       </c>
       <c r="E71">
-        <v>0.08283311831002278</v>
+        <v>0.01166455167575143</v>
       </c>
       <c r="F71">
-        <v>-0.08203032131463131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0699586789921465</v>
+      </c>
+      <c r="G71">
+        <v>0.01586772703008923</v>
+      </c>
+      <c r="H71">
+        <v>0.02779765422396173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.093703319443591</v>
+        <v>0.05796121828705569</v>
       </c>
       <c r="C72">
-        <v>0.09223575896689618</v>
+        <v>-0.110952151233275</v>
       </c>
       <c r="D72">
-        <v>-0.07593560462178675</v>
+        <v>0.001944671725480092</v>
       </c>
       <c r="E72">
-        <v>-0.08000937632949301</v>
+        <v>0.01668130390167827</v>
       </c>
       <c r="F72">
-        <v>-0.07299794765143157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.05167723831127265</v>
+      </c>
+      <c r="G72">
+        <v>0.04674000373115876</v>
+      </c>
+      <c r="H72">
+        <v>-0.1007021347527901</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1488697359089806</v>
+        <v>0.2809930044246919</v>
       </c>
       <c r="C73">
-        <v>0.1985044583025743</v>
+        <v>-0.1364450097188545</v>
       </c>
       <c r="D73">
-        <v>0.01565362059578517</v>
+        <v>0.01152547230688814</v>
       </c>
       <c r="E73">
-        <v>0.06316599273753916</v>
+        <v>0.09906978076347567</v>
       </c>
       <c r="F73">
-        <v>-0.1980720548104643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.08820380402149385</v>
+      </c>
+      <c r="G73">
+        <v>0.04984537554704289</v>
+      </c>
+      <c r="H73">
+        <v>-0.4832679683796754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.104974917517143</v>
+        <v>0.09558911543770815</v>
       </c>
       <c r="C74">
-        <v>0.07974819582595941</v>
+        <v>-0.1335691312422488</v>
       </c>
       <c r="D74">
-        <v>-0.02237708349788394</v>
+        <v>0.0004805751077053125</v>
       </c>
       <c r="E74">
-        <v>-0.0486611441415294</v>
+        <v>-0.01206805434543998</v>
       </c>
       <c r="F74">
-        <v>0.07891970086669869</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.04147430277539058</v>
+      </c>
+      <c r="G74">
+        <v>-0.02437036247693344</v>
+      </c>
+      <c r="H74">
+        <v>0.04066142623316927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1889153326685032</v>
+        <v>0.2032379157790607</v>
       </c>
       <c r="C75">
-        <v>0.1624599924104581</v>
+        <v>-0.2301291789615448</v>
       </c>
       <c r="D75">
-        <v>-0.01366539177756369</v>
+        <v>-0.009325366741842828</v>
       </c>
       <c r="E75">
-        <v>-0.1618145036301134</v>
+        <v>-0.007060690929730453</v>
       </c>
       <c r="F75">
-        <v>0.1235262155325314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1144402780009465</v>
+      </c>
+      <c r="G75">
+        <v>-0.05537675800658643</v>
+      </c>
+      <c r="H75">
+        <v>0.146962567781774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.237214258047847</v>
+        <v>0.1558385661495114</v>
       </c>
       <c r="C76">
-        <v>0.1517845535690991</v>
+        <v>-0.2085193514219882</v>
       </c>
       <c r="D76">
-        <v>-0.02939422011747885</v>
+        <v>-0.006455042927860713</v>
       </c>
       <c r="E76">
-        <v>-0.1705792723278498</v>
+        <v>-0.04588402714104289</v>
       </c>
       <c r="F76">
-        <v>0.2011343628219855</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09266936628311104</v>
+      </c>
+      <c r="G76">
+        <v>-0.05307565446441264</v>
+      </c>
+      <c r="H76">
+        <v>0.1290015884562705</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09053141414946829</v>
+        <v>0.04830733054002026</v>
       </c>
       <c r="C77">
-        <v>0.08484939088040271</v>
+        <v>-0.08697769486518353</v>
       </c>
       <c r="D77">
-        <v>-0.08022260258178666</v>
+        <v>0.02298811291921193</v>
       </c>
       <c r="E77">
-        <v>0.02663913649578397</v>
+        <v>0.01748363031325281</v>
       </c>
       <c r="F77">
-        <v>-0.1353178616789503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04870147544779437</v>
+      </c>
+      <c r="G77">
+        <v>0.05723228929425063</v>
+      </c>
+      <c r="H77">
+        <v>-0.01621877514914254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05926069517980721</v>
+        <v>0.02436936307898975</v>
       </c>
       <c r="C78">
-        <v>0.03834928672214098</v>
+        <v>-0.07934665759312483</v>
       </c>
       <c r="D78">
-        <v>-0.1102514299885212</v>
+        <v>0.01569372956090185</v>
       </c>
       <c r="E78">
-        <v>-0.03727516969314105</v>
+        <v>-0.00492702720192238</v>
       </c>
       <c r="F78">
-        <v>-0.07901308392797517</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.003513264129004314</v>
+      </c>
+      <c r="G78">
+        <v>0.05806361350743766</v>
+      </c>
+      <c r="H78">
+        <v>-0.09520720059666564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6570396371909218</v>
+        <v>0.1044419017221083</v>
       </c>
       <c r="C80">
-        <v>-0.7306452601450885</v>
+        <v>-0.1034048557231575</v>
       </c>
       <c r="D80">
-        <v>-0.07678230046724305</v>
+        <v>0.01396698731045349</v>
       </c>
       <c r="E80">
-        <v>0.04880873101696084</v>
+        <v>-0.9140105699734714</v>
       </c>
       <c r="F80">
-        <v>-0.04604691785546966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.3079382977292281</v>
+      </c>
+      <c r="G80">
+        <v>0.09843698601207951</v>
+      </c>
+      <c r="H80">
+        <v>-0.03100297180383355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1488880230903007</v>
+        <v>0.1306006086598765</v>
       </c>
       <c r="C81">
-        <v>0.1108083887455335</v>
+        <v>-0.1435492480168159</v>
       </c>
       <c r="D81">
-        <v>-0.007401245271265965</v>
+        <v>-0.005470715304849083</v>
       </c>
       <c r="E81">
-        <v>-0.1195722311771417</v>
+        <v>-0.01606071482983864</v>
       </c>
       <c r="F81">
-        <v>0.1098838672538937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06414306648394454</v>
+      </c>
+      <c r="G81">
+        <v>-0.03630216773554688</v>
+      </c>
+      <c r="H81">
+        <v>0.08736735773687379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02452604215635111</v>
+        <v>0.02145144697606821</v>
       </c>
       <c r="C83">
-        <v>0.02550675241062684</v>
+        <v>-0.02392459148415572</v>
       </c>
       <c r="D83">
-        <v>-0.02746055852673972</v>
+        <v>0.006830406691604554</v>
       </c>
       <c r="E83">
-        <v>0.01446261260186831</v>
+        <v>0.006040272199338404</v>
       </c>
       <c r="F83">
-        <v>-0.05550834461623063</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02078310884552413</v>
+      </c>
+      <c r="G83">
+        <v>0.03899235325392516</v>
+      </c>
+      <c r="H83">
+        <v>-0.042660335107151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2085720733816509</v>
+        <v>0.1891290271403777</v>
       </c>
       <c r="C85">
-        <v>0.1648837761285095</v>
+        <v>-0.2230406731070374</v>
       </c>
       <c r="D85">
-        <v>-0.02478049194681105</v>
+        <v>0.004021201341582818</v>
       </c>
       <c r="E85">
-        <v>-0.1466145202097239</v>
+        <v>-0.006640085782497211</v>
       </c>
       <c r="F85">
-        <v>0.1541593092188201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.119391269430039</v>
+      </c>
+      <c r="G85">
+        <v>-0.08716607499946459</v>
+      </c>
+      <c r="H85">
+        <v>0.07862597479081253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.009078961322440899</v>
+        <v>0.009654395459932295</v>
       </c>
       <c r="C86">
-        <v>-0.001274088884070689</v>
+        <v>-0.03563142071901569</v>
       </c>
       <c r="D86">
-        <v>-0.07923064406493124</v>
+        <v>0.0126002680271094</v>
       </c>
       <c r="E86">
-        <v>0.0007731255310453771</v>
+        <v>-0.0080056029728456</v>
       </c>
       <c r="F86">
-        <v>-0.04879713874328533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03152332998230643</v>
+      </c>
+      <c r="G86">
+        <v>0.0314878499319308</v>
+      </c>
+      <c r="H86">
+        <v>-0.07651719373542672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03141825227221709</v>
+        <v>0.00707834008692285</v>
       </c>
       <c r="C87">
-        <v>0.02242215710069214</v>
+        <v>-0.03980250914168907</v>
       </c>
       <c r="D87">
-        <v>-0.03883776725571236</v>
+        <v>0.01468938526295557</v>
       </c>
       <c r="E87">
-        <v>-0.006235281668671483</v>
+        <v>0.0004401030984211249</v>
       </c>
       <c r="F87">
-        <v>-0.1048330570682077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02969875409075455</v>
+      </c>
+      <c r="G87">
+        <v>0.07011937180028752</v>
+      </c>
+      <c r="H87">
+        <v>-0.08063487615566992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02125318830839332</v>
+        <v>0.043905615303241</v>
       </c>
       <c r="C88">
-        <v>-5.207510832643004e-05</v>
+        <v>-0.01769458716591146</v>
       </c>
       <c r="D88">
-        <v>0.002502348742688434</v>
+        <v>0.01925286487962705</v>
       </c>
       <c r="E88">
-        <v>-0.02065655141249535</v>
+        <v>-0.02128659898456367</v>
       </c>
       <c r="F88">
-        <v>0.01796782733907368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01966372321003269</v>
+      </c>
+      <c r="G88">
+        <v>-0.0004349445672106244</v>
+      </c>
+      <c r="H88">
+        <v>-0.008714454332591111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09882486409319627</v>
+        <v>0.3173990331044662</v>
       </c>
       <c r="C89">
-        <v>0.06071908194098169</v>
+        <v>0.2849813555621504</v>
       </c>
       <c r="D89">
-        <v>0.3401503581262536</v>
+        <v>-0.07372841240074278</v>
       </c>
       <c r="E89">
-        <v>0.04758342583717767</v>
+        <v>0.009092877080655617</v>
       </c>
       <c r="F89">
-        <v>-0.1034006651179007</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01096060325153265</v>
+      </c>
+      <c r="G89">
+        <v>-0.01779051008533768</v>
+      </c>
+      <c r="H89">
+        <v>0.01037823494257959</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08525512850546538</v>
+        <v>0.2640951936552518</v>
       </c>
       <c r="C90">
-        <v>0.02615770347945742</v>
+        <v>0.2621489687787669</v>
       </c>
       <c r="D90">
-        <v>0.3613240221489962</v>
+        <v>-0.06800608505456675</v>
       </c>
       <c r="E90">
-        <v>0.07517549068263084</v>
+        <v>0.00188529603314603</v>
       </c>
       <c r="F90">
-        <v>-0.05419192420197465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05231720562970114</v>
+      </c>
+      <c r="G90">
+        <v>-0.01352774605188965</v>
+      </c>
+      <c r="H90">
+        <v>0.06015279563086918</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2382141303931745</v>
+        <v>0.1985216361518596</v>
       </c>
       <c r="C91">
-        <v>0.2091512188720561</v>
+        <v>-0.212187762646223</v>
       </c>
       <c r="D91">
-        <v>-0.02561467613933449</v>
+        <v>-0.01001082026979736</v>
       </c>
       <c r="E91">
-        <v>-0.1242241056943527</v>
+        <v>0.003330422855014265</v>
       </c>
       <c r="F91">
-        <v>0.2376049978623399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.09962718050988337</v>
+      </c>
+      <c r="G91">
+        <v>-0.07920891641059348</v>
+      </c>
+      <c r="H91">
+        <v>0.1638194946488938</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1512325622354131</v>
+        <v>0.2806595735326522</v>
       </c>
       <c r="C92">
-        <v>0.08876742529071728</v>
+        <v>0.1628109417932745</v>
       </c>
       <c r="D92">
-        <v>0.4302857086469506</v>
+        <v>-0.09648532882558253</v>
       </c>
       <c r="E92">
-        <v>-0.0292257424160446</v>
+        <v>-0.004699192762247261</v>
       </c>
       <c r="F92">
-        <v>0.05641830489504976</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03050485739401681</v>
+      </c>
+      <c r="G92">
+        <v>0.02392698271296934</v>
+      </c>
+      <c r="H92">
+        <v>0.1502510684163446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08475083668308016</v>
+        <v>0.295407950085339</v>
       </c>
       <c r="C93">
-        <v>0.07233935500050838</v>
+        <v>0.2590137567262263</v>
       </c>
       <c r="D93">
-        <v>0.421038416051453</v>
+        <v>-0.07720201617652717</v>
       </c>
       <c r="E93">
-        <v>0.1124603905669845</v>
+        <v>0.03418097329101484</v>
       </c>
       <c r="F93">
-        <v>-0.06070967176538627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.04834837984669226</v>
+      </c>
+      <c r="G93">
+        <v>-0.02139762388386855</v>
+      </c>
+      <c r="H93">
+        <v>-0.0004216742036779943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2306139508841325</v>
+        <v>0.2447893273738592</v>
       </c>
       <c r="C94">
-        <v>0.2151169172233542</v>
+        <v>-0.237806164279704</v>
       </c>
       <c r="D94">
-        <v>-0.03133628796720612</v>
+        <v>0.002125313210676383</v>
       </c>
       <c r="E94">
-        <v>-0.2364780086456153</v>
+        <v>0.01058858510204786</v>
       </c>
       <c r="F94">
-        <v>0.1908182562539893</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2380636126523757</v>
+      </c>
+      <c r="G94">
+        <v>-0.1208747322991992</v>
+      </c>
+      <c r="H94">
+        <v>0.4005033040047906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.004280126800018947</v>
+        <v>0.03038966278670703</v>
       </c>
       <c r="C95">
-        <v>0.08613202646762709</v>
+        <v>-0.1015154256949771</v>
       </c>
       <c r="D95">
-        <v>-0.0387968509996068</v>
+        <v>0.005810746659391446</v>
       </c>
       <c r="E95">
-        <v>-0.02199674448785248</v>
+        <v>0.08276233557704485</v>
       </c>
       <c r="F95">
-        <v>-0.01619583645967792</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02305702747745243</v>
+      </c>
+      <c r="G95">
+        <v>0.03471200980748376</v>
+      </c>
+      <c r="H95">
+        <v>-0.0390057127180429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1213772128973228</v>
+        <v>0.1837607162548756</v>
       </c>
       <c r="C98">
-        <v>0.1285612173715648</v>
+        <v>-0.06742981428446937</v>
       </c>
       <c r="D98">
-        <v>0.0161427988242128</v>
+        <v>-0.02438503474112992</v>
       </c>
       <c r="E98">
-        <v>0.06170320519231089</v>
+        <v>0.06618439861993881</v>
       </c>
       <c r="F98">
-        <v>-0.1674527945816753</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.009268328100324399</v>
+      </c>
+      <c r="G98">
+        <v>0.06709089965175119</v>
+      </c>
+      <c r="H98">
+        <v>-0.325016429171966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01018023499033862</v>
+        <v>0.007865451464196831</v>
       </c>
       <c r="C101">
-        <v>-0.001419920144579744</v>
+        <v>-0.01893652446617339</v>
       </c>
       <c r="D101">
-        <v>-0.06065033580600174</v>
+        <v>0.008725240084604168</v>
       </c>
       <c r="E101">
-        <v>-0.02895539896366224</v>
+        <v>0.0006476685985388796</v>
       </c>
       <c r="F101">
-        <v>-0.1690472941878244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03137286593642252</v>
+      </c>
+      <c r="G101">
+        <v>0.08990613671991009</v>
+      </c>
+      <c r="H101">
+        <v>0.01080365644123161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09445535502031739</v>
+        <v>0.09364006629811579</v>
       </c>
       <c r="C102">
-        <v>0.06972996845589269</v>
+        <v>-0.1059841080072007</v>
       </c>
       <c r="D102">
-        <v>-0.01604925491108561</v>
+        <v>0.00852656368471871</v>
       </c>
       <c r="E102">
-        <v>-0.07662078650604762</v>
+        <v>-0.007167259127585142</v>
       </c>
       <c r="F102">
-        <v>0.09323002178709652</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06226515400986362</v>
+      </c>
+      <c r="G102">
+        <v>-0.03557844879103365</v>
+      </c>
+      <c r="H102">
+        <v>0.06247629742725674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04372755164355423</v>
+        <v>0.01176408401956488</v>
       </c>
       <c r="C103">
-        <v>0.01834665619377252</v>
+        <v>-0.01892849527979201</v>
       </c>
       <c r="D103">
-        <v>-0.02171850269659376</v>
+        <v>0.001543353731378555</v>
       </c>
       <c r="E103">
-        <v>-0.0419895296360996</v>
+        <v>-0.01293356808961816</v>
       </c>
       <c r="F103">
-        <v>0.009633631000801052</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.0007803493924632199</v>
+      </c>
+      <c r="G103">
+        <v>0.006696318893340801</v>
+      </c>
+      <c r="H103">
+        <v>0.01577930579855564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1133739011331442</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.1847468769597899</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9616489996128736</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02568707545756665</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1135521704662018</v>
+      </c>
+      <c r="G104">
+        <v>0.05007854814995238</v>
+      </c>
+      <c r="H104">
+        <v>0.05459355284439762</v>
       </c>
     </row>
   </sheetData>
